--- a/storage/app/xlsx/seed_cidades_to.xlsx
+++ b/storage/app/xlsx/seed_cidades_to.xlsx
@@ -23,7 +23,7 @@
     <t>ABREULANDENSE</t>
   </si>
   <si>
-    <t>94afd8e5-dbe5-49b1-96fe-5339ba74639d</t>
+    <t>71f1ce59-b363-4b9f-be03-2de138e5625c</t>
   </si>
   <si>
     <t>AGUIARNÓPOLIS</t>

--- a/storage/app/xlsx/seed_cidades_to.xlsx
+++ b/storage/app/xlsx/seed_cidades_to.xlsx
@@ -23,7 +23,7 @@
     <t>ABREULANDENSE</t>
   </si>
   <si>
-    <t>71f1ce59-b363-4b9f-be03-2de138e5625c</t>
+    <t>3f340680-0700-409f-961d-e09461bb3579</t>
   </si>
   <si>
     <t>AGUIARNÓPOLIS</t>

--- a/storage/app/xlsx/seed_cidades_to.xlsx
+++ b/storage/app/xlsx/seed_cidades_to.xlsx
@@ -23,7 +23,7 @@
     <t>ABREULANDENSE</t>
   </si>
   <si>
-    <t>3f340680-0700-409f-961d-e09461bb3579</t>
+    <t>3444560e-6f9a-4778-add3-18269bd6fab4</t>
   </si>
   <si>
     <t>AGUIARNÓPOLIS</t>

--- a/storage/app/xlsx/seed_cidades_to.xlsx
+++ b/storage/app/xlsx/seed_cidades_to.xlsx
@@ -23,7 +23,7 @@
     <t>ABREULANDENSE</t>
   </si>
   <si>
-    <t>3444560e-6f9a-4778-add3-18269bd6fab4</t>
+    <t>70c166f7-e09f-47ca-91d5-876d0aed192c</t>
   </si>
   <si>
     <t>AGUIARNÓPOLIS</t>

--- a/storage/app/xlsx/seed_cidades_to.xlsx
+++ b/storage/app/xlsx/seed_cidades_to.xlsx
@@ -23,7 +23,7 @@
     <t>ABREULANDENSE</t>
   </si>
   <si>
-    <t>70c166f7-e09f-47ca-91d5-876d0aed192c</t>
+    <t>c6cc7d72-3b56-40fe-94d8-93f7aa4eb49d</t>
   </si>
   <si>
     <t>AGUIARNÓPOLIS</t>

--- a/storage/app/xlsx/seed_cidades_to.xlsx
+++ b/storage/app/xlsx/seed_cidades_to.xlsx
@@ -23,7 +23,7 @@
     <t>ABREULANDENSE</t>
   </si>
   <si>
-    <t>c6cc7d72-3b56-40fe-94d8-93f7aa4eb49d</t>
+    <t>d57f6227-11e6-4bfc-9115-9bd2f7d2a459</t>
   </si>
   <si>
     <t>AGUIARNÓPOLIS</t>
